--- a/[Work]/回旋镖BI打点需求.xlsx
+++ b/[Work]/回旋镖BI打点需求.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\[Work]\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23A2A09-DB24-43A7-BB4E-F331349F9D19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2499F5FA-4F06-4964-9AEC-37626B23BE44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,14 +1042,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1060,6 +1054,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1067,9 +1070,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,7 +1358,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D140" sqref="D140"/>
+      <selection pane="bottomRight" activeCell="B133" sqref="B133:C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1400,13 +1400,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1424,9 +1424,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>175</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +1484,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>164</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1508,11 +1508,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1530,9 +1530,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="4" t="s">
         <v>70</v>
       </c>
@@ -1548,11 +1548,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="7" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1572,9 +1572,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1590,9 +1590,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
@@ -1608,9 +1608,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1626,9 +1626,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
         <v>76</v>
       </c>
@@ -1646,9 +1646,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
         <v>77</v>
       </c>
@@ -1666,13 +1666,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1690,9 +1690,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="4" t="s">
         <v>83</v>
       </c>
@@ -1708,9 +1708,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
@@ -1726,9 +1726,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="4" t="s">
         <v>167</v>
       </c>
@@ -1742,11 +1742,11 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1764,9 +1764,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="4" t="s">
         <v>167</v>
       </c>
@@ -1780,9 +1780,9 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="4" t="s">
         <v>85</v>
       </c>
@@ -1800,9 +1800,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="4" t="s">
         <v>87</v>
       </c>
@@ -1820,9 +1820,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="4" t="s">
         <v>88</v>
       </c>
@@ -1840,11 +1840,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1862,9 +1862,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4" t="s">
         <v>167</v>
       </c>
@@ -1878,9 +1878,9 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="4" t="s">
         <v>85</v>
       </c>
@@ -1896,9 +1896,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="4" t="s">
         <v>87</v>
       </c>
@@ -1914,9 +1914,9 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
@@ -1932,11 +1932,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1954,9 +1954,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="4" t="s">
         <v>167</v>
       </c>
@@ -1970,9 +1970,9 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="4" t="s">
         <v>94</v>
       </c>
@@ -1988,9 +1988,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4" t="s">
         <v>95</v>
       </c>
@@ -2006,9 +2006,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4" t="s">
         <v>97</v>
       </c>
@@ -2024,9 +2024,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="4" t="s">
         <v>98</v>
       </c>
@@ -2044,9 +2044,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="4" t="s">
         <v>99</v>
       </c>
@@ -2062,9 +2062,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="4" t="s">
         <v>102</v>
       </c>
@@ -2080,11 +2080,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="7" t="s">
         <v>103</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2102,9 +2102,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="4" t="s">
         <v>167</v>
       </c>
@@ -2118,9 +2118,9 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="4" t="s">
         <v>170</v>
       </c>
@@ -2136,9 +2136,9 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="4" t="s">
         <v>85</v>
       </c>
@@ -2154,9 +2154,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="4" t="s">
         <v>104</v>
       </c>
@@ -2172,9 +2172,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="4" t="s">
         <v>105</v>
       </c>
@@ -2190,9 +2190,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="4" t="s">
         <v>121</v>
       </c>
@@ -2208,11 +2208,11 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="16" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="7" t="s">
         <v>107</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -2230,9 +2230,9 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="4" t="s">
         <v>167</v>
       </c>
@@ -2246,9 +2246,9 @@
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="4" t="s">
         <v>85</v>
       </c>
@@ -2264,9 +2264,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="4" t="s">
         <v>121</v>
       </c>
@@ -2282,11 +2282,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="7" t="s">
         <v>108</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -2304,9 +2304,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="4" t="s">
         <v>72</v>
       </c>
@@ -2320,9 +2320,9 @@
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="4" t="s">
         <v>112</v>
       </c>
@@ -2340,9 +2340,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="4" t="s">
         <v>109</v>
       </c>
@@ -2358,9 +2358,9 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="4" t="s">
         <v>85</v>
       </c>
@@ -2376,9 +2376,9 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="4" t="s">
         <v>121</v>
       </c>
@@ -2394,11 +2394,11 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="16" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2416,9 +2416,9 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="4" t="s">
         <v>167</v>
       </c>
@@ -2432,9 +2432,9 @@
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="4" t="s">
         <v>85</v>
       </c>
@@ -2450,9 +2450,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="4" t="s">
         <v>117</v>
       </c>
@@ -2468,9 +2468,9 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="4" t="s">
         <v>121</v>
       </c>
@@ -2486,11 +2486,11 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="16" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -2508,9 +2508,9 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="4" t="s">
         <v>167</v>
       </c>
@@ -2524,9 +2524,9 @@
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="4" t="s">
         <v>85</v>
       </c>
@@ -2542,9 +2542,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="4" t="s">
         <v>121</v>
       </c>
@@ -2560,11 +2560,11 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="16" t="s">
+      <c r="A63" s="12"/>
+      <c r="B63" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="7" t="s">
         <v>116</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -2582,9 +2582,9 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="4" t="s">
         <v>72</v>
       </c>
@@ -2598,9 +2598,9 @@
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="4" t="s">
         <v>85</v>
       </c>
@@ -2616,9 +2616,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="4" t="s">
         <v>118</v>
       </c>
@@ -2634,9 +2634,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="4" t="s">
         <v>121</v>
       </c>
@@ -2652,11 +2652,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="16" t="s">
+      <c r="A68" s="12"/>
+      <c r="B68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -2674,9 +2674,9 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="4" t="s">
         <v>72</v>
       </c>
@@ -2692,9 +2692,9 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4" t="s">
         <v>167</v>
       </c>
@@ -2708,9 +2708,9 @@
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="4" t="s">
         <v>85</v>
       </c>
@@ -2726,9 +2726,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="4" t="s">
         <v>147</v>
       </c>
@@ -2744,9 +2744,9 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="4" t="s">
         <v>149</v>
       </c>
@@ -2764,9 +2764,9 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="4" t="s">
         <v>148</v>
       </c>
@@ -2784,9 +2784,9 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="4" t="s">
         <v>124</v>
       </c>
@@ -2802,9 +2802,9 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="4" t="s">
         <v>110</v>
       </c>
@@ -2822,9 +2822,9 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="4" t="s">
         <v>125</v>
       </c>
@@ -2840,9 +2840,9 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="4" t="s">
         <v>126</v>
       </c>
@@ -2858,11 +2858,11 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="16" t="s">
+      <c r="A79" s="12"/>
+      <c r="B79" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -2880,9 +2880,9 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="4" t="s">
         <v>167</v>
       </c>
@@ -2898,9 +2898,9 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="4" t="s">
         <v>85</v>
       </c>
@@ -2916,9 +2916,9 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="4" t="s">
         <v>154</v>
       </c>
@@ -2934,9 +2934,9 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="4" t="s">
         <v>155</v>
       </c>
@@ -2954,9 +2954,9 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="4" t="s">
         <v>162</v>
       </c>
@@ -2974,9 +2974,9 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="4" t="s">
         <v>124</v>
       </c>
@@ -2992,9 +2992,9 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="4" t="s">
         <v>110</v>
       </c>
@@ -3012,9 +3012,9 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="4" t="s">
         <v>125</v>
       </c>
@@ -3030,9 +3030,9 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="4" t="s">
         <v>126</v>
       </c>
@@ -3048,11 +3048,11 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="12"/>
+      <c r="B89" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
         <v>178</v>
       </c>
       <c r="D89" s="4" t="s">
@@ -3070,9 +3070,9 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
       <c r="D90" s="4" t="s">
         <v>167</v>
       </c>
@@ -3088,9 +3088,9 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
       <c r="D91" s="4" t="s">
         <v>88</v>
       </c>
@@ -3106,9 +3106,9 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
       <c r="D92" s="4" t="s">
         <v>180</v>
       </c>
@@ -3126,9 +3126,9 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
       <c r="D93" s="4" t="s">
         <v>185</v>
       </c>
@@ -3144,11 +3144,11 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="12"/>
+      <c r="B94" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="8" t="s">
         <v>179</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -3166,9 +3166,9 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
       <c r="D95" s="4" t="s">
         <v>167</v>
       </c>
@@ -3184,9 +3184,9 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
       <c r="D96" s="4" t="s">
         <v>88</v>
       </c>
@@ -3202,9 +3202,9 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
       <c r="D97" s="4" t="s">
         <v>184</v>
       </c>
@@ -3222,9 +3222,9 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
       <c r="D98" s="4" t="s">
         <v>185</v>
       </c>
@@ -3240,11 +3240,11 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="8"/>
-      <c r="B99" s="16" t="s">
+      <c r="A99" s="12"/>
+      <c r="B99" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="7" t="s">
         <v>127</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -3262,9 +3262,9 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="8"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="4" t="s">
         <v>167</v>
       </c>
@@ -3280,9 +3280,9 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="8"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="4" t="s">
         <v>85</v>
       </c>
@@ -3298,9 +3298,9 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="8"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="4" t="s">
         <v>128</v>
       </c>
@@ -3316,9 +3316,9 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="8"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="4" t="s">
         <v>83</v>
       </c>
@@ -3334,9 +3334,9 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="8"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="4" t="s">
         <v>84</v>
       </c>
@@ -3352,9 +3352,9 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="8"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="4" t="s">
         <v>129</v>
       </c>
@@ -3370,9 +3370,9 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="4" t="s">
         <v>130</v>
       </c>
@@ -3388,11 +3388,11 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
-      <c r="B107" s="16" t="s">
+      <c r="A107" s="12"/>
+      <c r="B107" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="7" t="s">
         <v>131</v>
       </c>
       <c r="D107" s="4" t="s">
@@ -3410,9 +3410,9 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="8"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="4" t="s">
         <v>167</v>
       </c>
@@ -3428,9 +3428,9 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="8"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
       <c r="D109" s="4" t="s">
         <v>85</v>
       </c>
@@ -3446,9 +3446,9 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="8"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="4" t="s">
         <v>135</v>
       </c>
@@ -3464,11 +3464,11 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="8"/>
-      <c r="B111" s="16" t="s">
+      <c r="A111" s="12"/>
+      <c r="B111" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -3486,9 +3486,9 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="4" t="s">
         <v>85</v>
       </c>
@@ -3504,9 +3504,9 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="8"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="4" t="s">
         <v>135</v>
       </c>
@@ -3522,11 +3522,11 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="8"/>
-      <c r="B114" s="16" t="s">
+      <c r="A114" s="12"/>
+      <c r="B114" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D114" s="4" t="s">
@@ -3544,9 +3544,9 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="8"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="4" t="s">
         <v>167</v>
       </c>
@@ -3562,9 +3562,9 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="8"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="4" t="s">
         <v>85</v>
       </c>
@@ -3580,9 +3580,9 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="8"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="4" t="s">
         <v>135</v>
       </c>
@@ -3598,11 +3598,11 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
-      <c r="B118" s="16" t="s">
+      <c r="A118" s="12"/>
+      <c r="B118" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="7" t="s">
         <v>133</v>
       </c>
       <c r="D118" s="4" t="s">
@@ -3620,9 +3620,9 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="8"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="4" t="s">
         <v>85</v>
       </c>
@@ -3638,9 +3638,9 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="8"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="4" t="s">
         <v>141</v>
       </c>
@@ -3656,11 +3656,11 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="8"/>
-      <c r="B121" s="16" t="s">
+      <c r="A121" s="12"/>
+      <c r="B121" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D121" s="4" t="s">
@@ -3678,9 +3678,9 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="8"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="4" t="s">
         <v>167</v>
       </c>
@@ -3696,9 +3696,9 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="8"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="4" t="s">
         <v>85</v>
       </c>
@@ -3714,9 +3714,9 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="4" t="s">
         <v>141</v>
       </c>
@@ -3732,11 +3732,11 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="8"/>
-      <c r="B125" s="16" t="s">
+      <c r="A125" s="12"/>
+      <c r="B125" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="C125" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D125" s="4" t="s">
@@ -3754,9 +3754,9 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="8"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="4" t="s">
         <v>167</v>
       </c>
@@ -3772,9 +3772,9 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="8"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="4" t="s">
         <v>85</v>
       </c>
@@ -3790,9 +3790,9 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="8"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="4" t="s">
         <v>141</v>
       </c>
@@ -3808,11 +3808,11 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="8"/>
-      <c r="B129" s="16" t="s">
+      <c r="A129" s="12"/>
+      <c r="B129" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="7" t="s">
         <v>145</v>
       </c>
       <c r="D129" s="4" t="s">
@@ -3830,9 +3830,9 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="4" t="s">
         <v>167</v>
       </c>
@@ -3848,9 +3848,9 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="8"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="4" t="s">
         <v>85</v>
       </c>
@@ -3866,9 +3866,9 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="9"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="4" t="s">
         <v>124</v>
       </c>
@@ -3884,13 +3884,13 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="8" t="s">
         <v>192</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -3908,9 +3908,9 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="8"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
       <c r="D134" s="6" t="s">
         <v>194</v>
       </c>
@@ -3926,9 +3926,9 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="8"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
       <c r="D135" s="6" t="s">
         <v>195</v>
       </c>
@@ -3944,9 +3944,9 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
       <c r="D136" s="6" t="s">
         <v>193</v>
       </c>
@@ -3962,11 +3962,11 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="8"/>
-      <c r="B137" s="4" t="s">
+      <c r="A137" s="12"/>
+      <c r="B137" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="8" t="s">
         <v>190</v>
       </c>
       <c r="D137" s="4" t="s">
@@ -3984,9 +3984,9 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="8"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
       <c r="D138" s="4" t="s">
         <v>195</v>
       </c>
@@ -4002,9 +4002,9 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
       <c r="D139" s="6" t="s">
         <v>193</v>
       </c>
@@ -4020,9 +4020,9 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="8"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
       <c r="D140" s="6" t="s">
         <v>218</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="8"/>
+      <c r="A141" s="12"/>
       <c r="B141" s="4" t="s">
         <v>198</v>
       </c>
@@ -4058,7 +4058,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="9"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="4" t="s">
         <v>199</v>
       </c>
@@ -4080,13 +4080,13 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="14" t="s">
         <v>209</v>
       </c>
       <c r="D143" s="6" t="s">
@@ -4106,9 +4106,9 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="8"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="14"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="15"/>
       <c r="D144" s="6" t="s">
         <v>211</v>
       </c>
@@ -4124,9 +4124,9 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="15"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="16"/>
       <c r="D145" s="6" t="s">
         <v>215</v>
       </c>
@@ -4142,48 +4142,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:C78"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="C79:C88"/>
-    <mergeCell ref="B99:B106"/>
-    <mergeCell ref="C99:C106"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="C125:C128"/>
+  <mergeCells count="61">
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="C137:C140"/>
     <mergeCell ref="A133:A142"/>
     <mergeCell ref="B143:B145"/>
     <mergeCell ref="C143:C145"/>
@@ -4200,6 +4163,47 @@
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="A15:A132"/>
     <mergeCell ref="C118:C120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:C78"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C79:C88"/>
+    <mergeCell ref="B99:B106"/>
+    <mergeCell ref="C99:C106"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
